--- a/document/危废运输管理系统数据库设计.xlsx
+++ b/document/危废运输管理系统数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="运输管理系统数据库说明" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>longitude</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,19 +170,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外键，device表的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名：gps_GPS设备编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0表示运行正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外键，transport_unit表的主键</t>
+    <t>现有GPS设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键fk_ownership_id，transport_unit表的主键transport_unit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键fk_gps_device_id，device表的主键device_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_0:308033501795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_1:308001061692</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：gps_GPS设备ID号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,12 +652,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +686,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,22 +724,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -720,19 +747,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -744,14 +771,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -763,14 +790,14 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -782,14 +809,14 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -798,17 +825,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -820,19 +847,19 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -845,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,7 +881,7 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -883,22 +910,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -906,19 +933,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E3" s="2">
         <v>255</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -927,19 +954,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="2">
         <v>255</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -948,22 +975,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -971,22 +998,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
